--- a/data/result_q4_tables.xlsx
+++ b/data/result_q4_tables.xlsx
@@ -438,10 +438,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8.526733</v>
+        <v>6.993659</v>
       </c>
       <c r="C3">
-        <v>-0.236245</v>
+        <v>5.192093</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -449,10 +449,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4.416354</v>
+        <v>-10.115123</v>
       </c>
       <c r="C4">
-        <v>2.922297</v>
+        <v>4.269906</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -460,10 +460,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-4.599217</v>
+        <v>-12.471906</v>
       </c>
       <c r="C5">
-        <v>-5.370732</v>
+        <v>-3.10912</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -471,10 +471,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.891334</v>
+        <v>-14.487099</v>
       </c>
       <c r="C6">
-        <v>9.291399999999999</v>
+        <v>0.02069</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-10.421739</v>
+        <v>-10.378421</v>
       </c>
       <c r="C7">
-        <v>5.545273</v>
+        <v>12.11704</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -493,10 +493,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>9.996606999999999</v>
+        <v>-3.284752</v>
       </c>
       <c r="C8">
-        <v>-7.686587</v>
+        <v>-16.229396</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.0001</v>
+        <v>0.999904</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.00263</v>
+        <v>0.999346</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.044365</v>
+        <v>0.999091</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.043236</v>
+        <v>0.9989440000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.042833</v>
+        <v>0.998849</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.042728</v>
+        <v>0.998817</v>
       </c>
     </row>
   </sheetData>

--- a/data/result_q4_tables.xlsx
+++ b/data/result_q4_tables.xlsx
@@ -7,47 +7,227 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="position" sheetId="1" r:id="rId1"/>
-    <sheet name="speed" sheetId="2" r:id="rId2"/>
+    <sheet name="position_sample" sheetId="1" r:id="rId1"/>
+    <sheet name="speed_sample" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>对象</t>
-  </si>
-  <si>
-    <t>-100s x(m)</t>
-  </si>
-  <si>
-    <t>-100s y(m)</t>
-  </si>
-  <si>
-    <t>龙头</t>
-  </si>
-  <si>
-    <t>第1节龙身</t>
-  </si>
-  <si>
-    <t>第51节龙身</t>
-  </si>
-  <si>
-    <t>第101节龙身</t>
-  </si>
-  <si>
-    <t>第151节龙身</t>
-  </si>
-  <si>
-    <t>第201节龙身</t>
-  </si>
-  <si>
-    <t>龙尾（后）</t>
-  </si>
-  <si>
-    <t>-100s speed(m/s)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+  <si>
+    <t>-100 s</t>
+  </si>
+  <si>
+    <t>-50 s</t>
+  </si>
+  <si>
+    <t>0 s</t>
+  </si>
+  <si>
+    <t>50 s</t>
+  </si>
+  <si>
+    <t>100 s</t>
+  </si>
+  <si>
+    <t>龙头x (m)</t>
+  </si>
+  <si>
+    <t>龙头y (m)</t>
+  </si>
+  <si>
+    <t>第1节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第1节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第2节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第2节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第3节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第3节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第4节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第4节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第5节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第5节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第6节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第6节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第7节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第7节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第8节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第8节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第9节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第9节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第10节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第10节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第11节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第11节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第12节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第12节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第13节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第13节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第14节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第14节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第15节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第15节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第16节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第16节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第17节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第17节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第18节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第18节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第19节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第19节龙身y (m)</t>
+  </si>
+  <si>
+    <t>第20节龙身x (m)</t>
+  </si>
+  <si>
+    <t>第20节龙身y (m)</t>
+  </si>
+  <si>
+    <t>龙尾（后）x (m)</t>
+  </si>
+  <si>
+    <t>龙尾（后）y (m)</t>
+  </si>
+  <si>
+    <t>龙头 (m/s)</t>
+  </si>
+  <si>
+    <t>第1节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第2节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第3节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第4节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第5节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第6节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第7节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第8节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第9节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第10节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第11节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第12节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第13节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第14节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第15节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第16节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第17节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第18节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第19节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>第20节龙身 (m/s)</t>
+  </si>
+  <si>
+    <t>龙尾（后） (m/s)</t>
   </si>
 </sst>
 </file>
@@ -405,97 +585,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>8.216995000000001</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>2.606933</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>6.993659</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>5.192093</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>-10.115123</v>
-      </c>
-      <c r="C4">
-        <v>4.269906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>-12.471906</v>
-      </c>
-      <c r="C5">
-        <v>-3.10912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-14.487099</v>
-      </c>
-      <c r="C6">
-        <v>0.02069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>5.927821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-10.378421</v>
-      </c>
-      <c r="C7">
-        <v>12.11704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>6.451651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
+        <v>4.644635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>7.488924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>3.190508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>8.268677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1.617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>8.765238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>-0.021092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>8.963112000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>-1.66769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>8.85722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>-3.267357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>8.452787000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>-4.767122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>7.764888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>-6.118158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>6.81768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>-7.277262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>5.643381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>-8.208099000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>4.281015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>-8.882177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>2.774987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>-9.27955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>1.173552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>-9.389215999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>-0.472799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>-9.209234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>-2.112954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>-8.746553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>-3.696755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>-8.016586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>-5.176501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>-7.042534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>-6.508313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>-5.854512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>-7.653347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
         <v>-3.284752</v>
       </c>
-      <c r="C8">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
         <v>-16.229396</v>
       </c>
     </row>
@@ -506,73 +968,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>0.999904</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B4">
-        <v>0.999346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.9998860000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B5">
-        <v>0.999091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.999869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B6">
-        <v>0.9989440000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.999853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B7">
-        <v>0.998849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.9998359999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B8">
+        <v>0.99982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>0.999804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>0.999789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>0.9997740000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>0.99976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>0.999745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>0.999731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>0.999717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>0.999704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>0.999691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>0.999678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19">
+        <v>0.999665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <v>0.999653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>0.99964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>0.999628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
         <v>0.998817</v>
       </c>
     </row>
